--- a/Timo100.xlsx
+++ b/Timo100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natha\Documents\MASTER1\LGCIV2041_numerical_analysis\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A76C31D-0C51-4DE9-A1A0-4649BC5B65EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9FAE45-4913-4A48-82FB-798E3B107665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3FFDDC0-A3C0-4DC9-9FD4-A564A68E1F4D}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Euler</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,40 +107,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>_temp_2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>_temp_2</c:v>
+            <c:v>Timoshenko</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>xyToExcel!$A$1:$A$101</c:f>
               <c:numCache>
@@ -443,8 +442,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>xyToExcel!$B$1:$B$101</c:f>
               <c:numCache>
@@ -755,11 +754,661 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD52-430F-8804-A74F6040306C}"/>
+              <c16:uniqueId val="{00000000-B1A9-4092-8991-3865EA529D63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Euler-Bernoulli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xyToExcel!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xyToExcel!$E$1:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.000000047484456E-32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6746666515246034E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.677333265542984E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4975999481976032E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.65386663377285E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.1333332657814026E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.9328000992536545E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.0490663647651672E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10478933155536652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13219200074672699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.16266666352748871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19618132710456848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.23270399868488312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.27220267057418823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.31464532017707825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35999998450279236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.40823465585708618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.45931732654571533</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.51321601867675781</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.56989866495132446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.62933331727981567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.69148796796798706</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.75633066892623901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.82382935285568237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.89395201206207275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.96666663885116577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.0419412851333618</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1197439432144165</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2000426054000854</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.282805323600769</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3680000305175781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4555946588516235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5455573797225952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.6378560066223145</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7324587106704712</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8293333053588867</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.928447961807251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.0297706127166748</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1332693099975586</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2389118671417236</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.3466665744781494</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.4565012454986572</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.5683839321136475</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.6822826862335205</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.7981653213500977</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.9159998893737793</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.0357546806335449</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.1573972702026367</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.2808959484100342</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.4062185287475586</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5333333015441895</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.662208080291748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.7928106784820557</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.9251093864440918</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4.0590720176696777</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4.194666862487793</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-4.3318614959716797</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.4706239700317383</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.6109228134155273</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.7527251243591309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-4.8959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5.0407147407531738</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5.1868371963500977</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-5.3343358039855957</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5.4831786155700684</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5.6333332061767578</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.7847681045532227</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.9374504089355469</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.0913491249084473</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-6.246431827545166</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-6.4026665687561035</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-6.5600214004516602</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-6.7184638977050781</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-6.877962589263916</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-7.038485050201416</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-7.1999998092651367</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-7.3624744415283203</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-7.5258774757385254</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-7.6901760101318359</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.8553385734558105</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-8.0213336944580078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-8.1881275177001953</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-8.3556909561157227</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-8.5239896774291992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-8.6929922103881836</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-8.8626670837402344</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-9.0329809188842773</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-9.2039041519165039</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-9.3754024505615234</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-9.5474452972412109</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-9.7200002670288086</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-9.8930349349975586</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-10.066516876220703</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-10.240415573120117</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-10.414698600769043</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-10.589333534240723</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-10.764287948608398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-10.939530372619629</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-11.115029335021973</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-11.290751457214355</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-11.466666221618652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1A9-4092-8991-3865EA529D63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -771,84 +1420,291 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1627869759"/>
-        <c:axId val="1633654527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1627869759"/>
+        <c:axId val="1193363743"/>
+        <c:axId val="1193364223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1193363743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>X distance along path</a:t>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>x [m]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1633654527"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193364223"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1633654527"/>
+        <c:axId val="1193364223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Displacement</a:t>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>u</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="-25000"/>
+                  <a:t>y0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t>(x) [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-BE"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1627869759"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193363743"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -861,6 +1717,31 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -869,27 +1750,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9872FFA-9F8A-3007-54AF-427C9606749C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FC5651-30FC-BA99-7481-52EC16795A50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,13 +2344,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ZoneTexte 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4C0E87-AE35-7CC4-46FB-6AFCA3EE351B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5413375" y="1841500"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-BE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -951,7 +2443,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1057,7 +2549,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1199,7 +2691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1207,818 +2699,1126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F30242-47E7-4A37-8A4B-B97AC8B73482}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>-2.000000047484456E-32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>-2.000000047484456E-32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>-1.681411755271256E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>-1.6746666515246034E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-6.6908234730362892E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>-6.677333265542984E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-1.4996235258877277E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>-1.4975999481976032E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>-2.6565646752715111E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>-2.65386663377285E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>-4.1367057710886002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>-4.1333332657814026E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>-5.9368468821048737E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>-5.9328000992536545E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>-8.0537885427474976E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>-8.0490663647651672E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>-0.10484329611063004</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>-0.10478933155536652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>-0.13225270807743073</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>-0.13219200074672699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>-0.16273412108421326</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>-0.16266666352748871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>-0.19625553488731384</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>-0.19618132710456848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>-0.2327849417924881</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>-0.23270399868488312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>-0.27229034900665283</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>-0.27220267057418823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>-0.31473976373672485</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>-0.31464532017707825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>-0.36010116338729858</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>-0.35999998450279236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>-0.40834259986877441</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>-0.40823465585708618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>-0.45943200588226318</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>-0.45931732654571533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>-0.51333743333816528</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>-0.51321601867675781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>-0.57002681493759155</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>-0.56989866495132446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>-0.62946826219558716</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>-0.62933331727981567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>-0.69162964820861816</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>-0.69148796796798706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>-0.75647908449172974</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>-0.75633066892623901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>-0.82398444414138794</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>-0.82382935285568237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>-0.89411389827728271</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>-0.89395201206207275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>-0.96683531999588013</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>-0.96666663885116577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>-1.0421167612075806</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>-1.0419412851333618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>-1.1199260950088501</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>-1.1197439432144165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>-1.2002315521240234</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>-1.2000426054000854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>-1.2830009460449219</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>-1.282805323600769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>-1.3682023286819458</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>-1.3680000305175781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>-1.4558037519454956</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>-1.4555946588516235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>-1.5457731485366821</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>-1.5455573797225952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>-1.6380785703659058</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>-1.6378560066223145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>-1.7326879501342773</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>-1.7324587106704712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>-1.8295694589614868</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>-1.8293333053588867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>-1.9286907911300659</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>-1.928447961807251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>-2.0300202369689941</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>-2.0297706127166748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>-2.1335256099700928</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>-2.1332693099975586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>-2.2391750812530518</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>-2.2389118671417236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>-2.3469364643096924</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>-2.3466665744781494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>-2.456777811050415</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>-2.4565012454986572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>-2.5686671733856201</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>-2.5683839321136475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>-2.682572603225708</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>-2.6822826862335205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>-2.7984621524810791</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>-2.7981653213500977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>-2.9163036346435547</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>-2.9159998893737793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>-3.0360648632049561</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>-3.0357546806335449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>-3.1577143669128418</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>-3.1573972702026367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>-3.2812197208404541</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>-3.2808959484100342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>-3.4065492153167725</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>-3.4062185287475586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>-3.5336706638336182</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>-3.5333333015441895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>-3.6625518798828125</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>-3.662208080291748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>-3.7931613922119141</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>-3.7928106784820557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>-3.925466775894165</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>-3.9251093864440918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>-4.0594363212585449</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>-4.0590720176696777</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>-4.195037841796875</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>-4.194666862487793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>-4.3322391510009766</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>-4.3318614959716797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>-4.47100830078125</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>-4.4706239700317383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>-4.6113138198852539</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>-4.6109228134155273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>-4.7531232833862305</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>-4.7527251243591309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>-4.8964047431945801</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>-4.8959999084472656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>-5.0411262512207031</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>-5.0407147407531738</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>-5.1872553825378418</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>-5.1868371963500977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>-5.3347611427307129</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>-5.3343358039855957</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>-5.4836101531982422</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>-5.4831786155700684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>-5.6337718963623047</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>-5.6333332061767578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>-5.7852129936218262</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>-5.7847681045532227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>-5.9379024505615234</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>-5.9374504089355469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>-6.0918078422546387</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>-6.0913491249084473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>-6.2468972206115723</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>-6.246431827545166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>-6.4031386375427246</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>-6.4026665687561035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>-6.5605001449584961</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>-6.5600214004516602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>-6.7189497947692871</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>-6.7184638977050781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>-6.8784551620483398</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>-6.877962589263916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>-7.0389842987060547</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>-7.038485050201416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>-7.2005057334899902</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>-7.1999998092651367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>-7.3629875183105469</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>-7.3624744415283203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>-7.5263967514038086</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>-7.5258774757385254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>-7.690701961517334</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>-7.6901760101318359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>-7.8558716773986816</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>-7.8553385734558105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>-8.0218725204467773</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>-8.0213336944580078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>-8.1886739730834961</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>-8.1881275177001953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>-8.3562440872192383</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>-8.3556909561157227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>-8.5245494842529297</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>-8.5239896774291992</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>-8.6935586929321289</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>-8.6929922103881836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>-8.8632402420043945</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>-8.8626670837402344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>-9.0335617065429688</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>-9.0329809188842773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>-9.2044906616210938</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>-9.2039041519165039</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>-9.3759965896606445</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>-9.3754024505615234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>-9.5480461120605469</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>-9.5474452972412109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>-9.720606803894043</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>-9.7200002670288086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>-9.8936481475830078</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>-9.8930349349975586</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>-10.067137718200684</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>-10.066516876220703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>-10.241043090820313</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>-10.240415573120117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>-10.415332794189453</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>-10.414698600769043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>-10.589974403381348</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>-10.589333534240723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>-10.764935493469238</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>-10.764287948608398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>-10.940184593200684</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>-10.939530372619629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>-11.115690231323242</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>-11.115029335021973</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>-11.291419982910156</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>-11.290751457214355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>-11.467341423034668</v>
+      </c>
+      <c r="E101">
+        <v>-11.466666221618652</v>
       </c>
     </row>
   </sheetData>
